--- a/data/trans_camb/P2C_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R2-Estudios-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,51</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,82</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,9; 22,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,21; 10,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,51; -0,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,24; 20,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,41; 11,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,71; 2,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,5; 19,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,91; 9,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,6; 0,57</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,49%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,17; 110,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,27; 51,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,45; -1,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,48; 83,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,29; 45,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,2; 11,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,1; 86,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,94; 41,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,72; 2,52</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,94</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,15</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,56</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,57; 18,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,95; 2,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,07; -19,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,24; 21,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 3,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,65; 8,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,83; 18,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 2,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,46; -7,02</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,23%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,04; 56,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,3; 7,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,59; -60,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,66; 55,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,24; 9,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,82; 22,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,51; 53,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,65; 5,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,72; -16,02</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,87</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,6</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,34</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,08</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,84</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,09; 16,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,68; 6,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,46; -14,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,06; 21,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,85; 9,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,22; -21,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,22; 17,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,94; 6,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,17; -19,22</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,33%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,97%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,85; 60,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,49; 25,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,4; -53,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,08; 60,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,94; 29,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,75; -63,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,12; 54,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,65; 19,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,19; -61,22</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,64</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,84</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,37</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,93</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,34; 18,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 4,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,5; -15,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,59; 19,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,02; 6,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,28; 7,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,81; 18,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,69; 4,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,99; -6,21</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,05%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,4%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,17%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,35%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,82%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,1; 64,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 15,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,81; -53,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,76; 58,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,6; 19,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,17; 22,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,1; 59,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,19; 15,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,05; -18,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2C_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R2-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,9; 22,04</t>
+          <t>14,07; 22,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,21; 10,26</t>
+          <t>2,16; 10,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,51; -0,18</t>
+          <t>-8,04; -0,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,24; 20,5</t>
+          <t>13,21; 20,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,41; 11,25</t>
+          <t>3,7; 11,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 2,93</t>
+          <t>-3,76; 2,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,5; 19,94</t>
+          <t>14,6; 20,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,91; 9,85</t>
+          <t>4,02; 9,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 0,57</t>
+          <t>-4,15; 0,95</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,17; 110,74</t>
+          <t>60,67; 114,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,27; 51,46</t>
+          <t>9,36; 54,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,45; -1,21</t>
+          <t>-34,77; -1,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>46,48; 83,73</t>
+          <t>47,23; 83,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,29; 45,51</t>
+          <t>13,34; 46,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 11,74</t>
+          <t>-13,35; 11,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>56,1; 86,51</t>
+          <t>56,58; 86,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,94; 41,98</t>
+          <t>16,18; 42,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 2,52</t>
+          <t>-16,52; 4,18</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,57; 18,11</t>
+          <t>11,51; 18,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 2,39</t>
+          <t>-3,88; 2,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,07; -19,45</t>
+          <t>-26,02; -19,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,24; 21,22</t>
+          <t>14,14; 20,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 3,77</t>
+          <t>-3,05; 3,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,65; 8,73</t>
+          <t>-25,65; 4,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,83; 18,75</t>
+          <t>13,91; 18,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 2,06</t>
+          <t>-2,22; 2,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-24,46; -7,02</t>
+          <t>-24,26; -5,88</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,04; 56,92</t>
+          <t>32,79; 57,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 7,3</t>
+          <t>-11,16; 7,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-75,59; -60,68</t>
+          <t>-75,89; -59,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,66; 55,88</t>
+          <t>33,28; 53,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 9,94</t>
+          <t>-7,37; 8,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,82; 22,02</t>
+          <t>-63,08; 11,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,51; 53,21</t>
+          <t>36,38; 52,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 5,81</t>
+          <t>-5,93; 6,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-65,72; -16,02</t>
+          <t>-65,33; -14,93</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 16,17</t>
+          <t>3,66; 16,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 6,84</t>
+          <t>-5,45; 6,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,46; -14,93</t>
+          <t>-24,93; -15,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,06; 21,03</t>
+          <t>7,02; 19,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 9,9</t>
+          <t>-2,61; 9,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-31,22; -21,44</t>
+          <t>-30,99; -21,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,22; 17,12</t>
+          <t>7,72; 17,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 6,14</t>
+          <t>-2,05; 6,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-26,17; -19,22</t>
+          <t>-26,43; -19,58</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,85; 60,61</t>
+          <t>11,2; 58,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 25,42</t>
+          <t>-16,29; 22,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-74,4; -53,46</t>
+          <t>-74,21; -53,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,08; 60,41</t>
+          <t>18,16; 58,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 29,27</t>
+          <t>-6,23; 27,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-76,75; -63,21</t>
+          <t>-76,15; -63,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,12; 54,11</t>
+          <t>21,77; 55,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 19,34</t>
+          <t>-5,76; 20,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-73,19; -61,22</t>
+          <t>-73,27; -61,48</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,34; 18,07</t>
+          <t>13,08; 18,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 4,34</t>
+          <t>-0,16; 4,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,5; -15,16</t>
+          <t>-20,32; -15,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,59; 19,55</t>
+          <t>14,75; 19,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,02; 6,58</t>
+          <t>1,94; 6,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,28; 7,1</t>
+          <t>-18,27; 2,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,81; 18,31</t>
+          <t>14,8; 18,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,93</t>
+          <t>1,61; 4,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,99; -6,21</t>
+          <t>-17,98; -5,94</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>44,1; 64,46</t>
+          <t>43,02; 64,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,01; 15,47</t>
+          <t>-0,6; 14,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-68,81; -53,47</t>
+          <t>-68,09; -53,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>40,76; 58,79</t>
+          <t>41,1; 58,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,6; 19,96</t>
+          <t>5,33; 19,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-52,17; 22,88</t>
+          <t>-52,26; 6,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>45,1; 59,06</t>
+          <t>44,91; 58,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,19; 15,99</t>
+          <t>4,86; 15,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-56,05; -18,9</t>
+          <t>-56,09; -18,59</t>
         </is>
       </c>
     </row>
